--- a/CodeWars Tracker.xlsx
+++ b/CodeWars Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -59,7 +59,10 @@
     <t>In progress - gave up</t>
   </si>
   <si>
-    <t>Done - study the good solution</t>
+    <t>Statistics for an Athletic Organisation</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -385,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
@@ -446,10 +449,18 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>42761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/CodeWars Tracker.xlsx
+++ b/CodeWars Tracker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike.hewitson/src/codewars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikehewitson1/src/codewars/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>Statistics for an Athletic Organisation</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>Head, Tail, Init and Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress  </t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +463,18 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
